--- a/FunWorld_War/Assets/Excel/Multilingual.xlsx
+++ b/FunWorld_War/Assets/Excel/Multilingual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="13515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,18 +266,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -598,7 +592,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,16 +616,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -640,85 +634,85 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -726,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1091,7 +1085,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/FunWorld_War/Assets/Excel/Multilingual.xlsx
+++ b/FunWorld_War/Assets/Excel/Multilingual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="13515"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>多语言表</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>TraditionalChinese</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
   <si>
     <t>//注释</t>
   </si>
@@ -41,24 +65,6 @@
   </si>
   <si>
     <t>英语</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>TraditionalChinese</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>开始游戏</t>
@@ -1082,172 +1088,189 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5">
         <v>1000001</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6">
         <v>1000002</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7">
         <v>1000003</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8">
         <v>1000004</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9">
         <v>1000005</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10">
         <v>1000006</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11">
         <v>1000007</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12">
         <v>1000008</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13">
         <v>1000009</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14">
         <v>1000010</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15">
         <v>1000011</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16">
         <v>1000012</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
         <v>1000013</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
         <v>1000014</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
+      <c r="C18" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
